--- a/report/ml_perform_crossval_agg_chain_2022-11-25.xlsx
+++ b/report/ml_perform_crossval_agg_chain_2022-11-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADDB90-2A9F-45D9-B16B-89E4508D441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3DAFD-1FD2-4F40-91A7-25EBF1F989B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId5"/>
+    <pivotCache cacheId="52" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11FC6E3F-5618-4712-879E-0FB5B0643BEA}" name="PivotTable13" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11FC6E3F-5618-4712-879E-0FB5B0643BEA}" name="PivotTable13" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -562,7 +562,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -570,7 +570,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -602,7 +602,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -610,7 +610,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C00594B8-F56D-4B1F-A0EB-87D49A80F488}" name="PivotTable14" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C00594B8-F56D-4B1F-A0EB-87D49A80F488}" name="PivotTable14" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -711,7 +711,7 @@
     <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -719,7 +719,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -751,7 +751,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -759,7 +759,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B43DFDA7-BCAA-46F2-9372-6F5571D71CCB}" name="PivotTable15" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B43DFDA7-BCAA-46F2-9372-6F5571D71CCB}" name="PivotTable15" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -860,7 +860,7 @@
     <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -868,7 +868,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -900,7 +900,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -908,7 +908,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -1256,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF0D51-24B0-477B-A91D-8BC66D28C8DC}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
